--- a/Azza_Task/Excel/Test.xlsx
+++ b/Azza_Task/Excel/Test.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>searchValue</t>
   </si>
@@ -66,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,6 +360,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -374,19 +420,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Azza_Task/Excel/Test.xlsx
+++ b/Azza_Task/Excel/Test.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="2205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,9 +67,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -353,21 +352,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -375,7 +374,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
     </row>
@@ -383,7 +382,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -397,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,5 +424,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>